--- a/Luban/Datas/GameItemConfig.xlsx
+++ b/Luban/Datas/GameItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340" tabRatio="500"/>
+    <workbookView windowWidth="15870" windowHeight="11475" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>道具类型</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>宝石</t>
   </si>
 </sst>
 </file>
@@ -1365,12 +1371,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEZ12"/>
+  <dimension ref="A1:XEZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1550,6 +1556,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="6">
+        <v>10001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="6">
+        <v>10002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
